--- a/data_year/zb/人口/人口抽样调查样本数据/按户口登记状况分人口数(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/按户口登记状况分人口数(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,807 +513,521 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1258951</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>1145209</v>
+      </c>
+      <c r="C2" t="n">
+        <v>223697</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106365</v>
+      </c>
+      <c r="E2" t="n">
+        <v>117332</v>
+      </c>
       <c r="F2" t="n">
-        <v>1144930</v>
+        <v>909392</v>
       </c>
       <c r="G2" t="n">
-        <v>560247</v>
+        <v>445830</v>
       </c>
       <c r="H2" t="n">
-        <v>584684</v>
+        <v>463562</v>
       </c>
       <c r="I2" t="n">
-        <v>6022</v>
+        <v>10164</v>
       </c>
       <c r="J2" t="n">
-        <v>3043</v>
+        <v>5084</v>
       </c>
       <c r="K2" t="n">
-        <v>2979</v>
+        <v>5080</v>
       </c>
       <c r="L2" t="n">
-        <v>616197</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+        <v>558170</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1956</v>
+      </c>
+      <c r="N2" t="n">
+        <v>892</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1064</v>
+      </c>
       <c r="P2" t="n">
-        <v>642754</v>
+        <v>587039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1260498</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>1124661</v>
+      </c>
+      <c r="C3" t="n">
+        <v>215952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102315</v>
+      </c>
+      <c r="E3" t="n">
+        <v>113637</v>
+      </c>
       <c r="F3" t="n">
-        <v>1148379</v>
+        <v>898059</v>
       </c>
       <c r="G3" t="n">
-        <v>561770</v>
+        <v>440803</v>
       </c>
       <c r="H3" t="n">
-        <v>586608</v>
+        <v>457256</v>
       </c>
       <c r="I3" t="n">
-        <v>6262</v>
+        <v>8969</v>
       </c>
       <c r="J3" t="n">
-        <v>3109</v>
+        <v>4393</v>
       </c>
       <c r="K3" t="n">
-        <v>3153</v>
+        <v>4576</v>
       </c>
       <c r="L3" t="n">
-        <v>617098</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+        <v>548307</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1682</v>
+      </c>
+      <c r="N3" t="n">
+        <v>796</v>
+      </c>
+      <c r="O3" t="n">
+        <v>886</v>
+      </c>
       <c r="P3" t="n">
-        <v>643400</v>
+        <v>576354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1253065</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>1118433</v>
+      </c>
+      <c r="C4" t="n">
+        <v>211539</v>
+      </c>
+      <c r="D4" t="n">
+        <v>102593</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108946</v>
+      </c>
       <c r="F4" t="n">
-        <v>1143642</v>
+        <v>897422</v>
       </c>
       <c r="G4" t="n">
-        <v>561340</v>
+        <v>437710</v>
       </c>
       <c r="H4" t="n">
-        <v>582302</v>
+        <v>459713</v>
       </c>
       <c r="I4" t="n">
-        <v>6467</v>
+        <v>7797</v>
       </c>
       <c r="J4" t="n">
-        <v>3211</v>
+        <v>3939</v>
       </c>
       <c r="K4" t="n">
-        <v>3257</v>
+        <v>3857</v>
       </c>
       <c r="L4" t="n">
-        <v>615898</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+        <v>545005</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1675</v>
+      </c>
+      <c r="N4" t="n">
+        <v>763</v>
+      </c>
+      <c r="O4" t="n">
+        <v>911</v>
+      </c>
       <c r="P4" t="n">
-        <v>637167</v>
+        <v>573428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16985766</v>
+        <v>1124402</v>
       </c>
       <c r="C5" t="n">
-        <v>1945894</v>
+        <v>213720</v>
       </c>
       <c r="D5" t="n">
-        <v>962370</v>
+        <v>104113</v>
       </c>
       <c r="E5" t="n">
-        <v>983525</v>
+        <v>109607</v>
       </c>
       <c r="F5" t="n">
-        <v>14956470</v>
+        <v>902244</v>
       </c>
       <c r="G5" t="n">
-        <v>7396636</v>
+        <v>440110</v>
       </c>
       <c r="H5" t="n">
-        <v>7559833</v>
+        <v>462133</v>
       </c>
       <c r="I5" t="n">
-        <v>82374</v>
+        <v>6712</v>
       </c>
       <c r="J5" t="n">
-        <v>41469</v>
+        <v>3386</v>
       </c>
       <c r="K5" t="n">
-        <v>40905</v>
+        <v>3327</v>
       </c>
       <c r="L5" t="n">
-        <v>8400884</v>
+        <v>548391</v>
       </c>
       <c r="M5" t="n">
-        <v>1029</v>
+        <v>1726</v>
       </c>
       <c r="N5" t="n">
-        <v>410</v>
+        <v>782</v>
       </c>
       <c r="O5" t="n">
-        <v>619</v>
+        <v>944</v>
       </c>
       <c r="P5" t="n">
-        <v>8584882</v>
+        <v>576011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1192666</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>21312241</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4545865</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2147506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2398359</v>
+      </c>
       <c r="F6" t="n">
-        <v>1070090</v>
+        <v>16649810</v>
       </c>
       <c r="G6" t="n">
-        <v>527076</v>
+        <v>8190330</v>
       </c>
       <c r="H6" t="n">
-        <v>543014</v>
+        <v>8459480</v>
       </c>
       <c r="I6" t="n">
-        <v>5886</v>
+        <v>89209</v>
       </c>
       <c r="J6" t="n">
-        <v>2963</v>
+        <v>44754</v>
       </c>
       <c r="K6" t="n">
-        <v>2924</v>
+        <v>44455</v>
       </c>
       <c r="L6" t="n">
-        <v>588363</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+        <v>10395195</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27357</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12606</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14751</v>
+      </c>
       <c r="P6" t="n">
-        <v>604303</v>
+        <v>10917046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1188739</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>1158019</v>
+      </c>
+      <c r="C7" t="n">
+        <v>209164</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101524</v>
+      </c>
+      <c r="E7" t="n">
+        <v>107641</v>
+      </c>
       <c r="F7" t="n">
-        <v>1074440</v>
+        <v>942716</v>
       </c>
       <c r="G7" t="n">
-        <v>528887</v>
+        <v>460399</v>
       </c>
       <c r="H7" t="n">
-        <v>545553</v>
+        <v>482318</v>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>4781</v>
       </c>
       <c r="J7" t="n">
-        <v>2819</v>
+        <v>2373</v>
       </c>
       <c r="K7" t="n">
-        <v>2895</v>
+        <v>2408</v>
       </c>
       <c r="L7" t="n">
-        <v>585999</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+        <v>564932</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1357</v>
+      </c>
+      <c r="N7" t="n">
+        <v>636</v>
+      </c>
+      <c r="O7" t="n">
+        <v>721</v>
+      </c>
       <c r="P7" t="n">
-        <v>602740</v>
+        <v>593087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178521</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>1145246</v>
+      </c>
+      <c r="C8" t="n">
+        <v>219571</v>
+      </c>
+      <c r="D8" t="n">
+        <v>107454</v>
+      </c>
+      <c r="E8" t="n">
+        <v>112117</v>
+      </c>
       <c r="F8" t="n">
-        <v>1068230</v>
+        <v>916678</v>
       </c>
       <c r="G8" t="n">
-        <v>525870</v>
+        <v>447334</v>
       </c>
       <c r="H8" t="n">
-        <v>542359</v>
+        <v>469345</v>
       </c>
       <c r="I8" t="n">
-        <v>4999</v>
+        <v>7217</v>
       </c>
       <c r="J8" t="n">
-        <v>2398</v>
+        <v>3610</v>
       </c>
       <c r="K8" t="n">
-        <v>2601</v>
+        <v>3607</v>
       </c>
       <c r="L8" t="n">
-        <v>580182</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+        <v>559174</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1779</v>
+      </c>
+      <c r="N8" t="n">
+        <v>776</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1003</v>
+      </c>
       <c r="P8" t="n">
-        <v>598339</v>
+        <v>586072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1164986</v>
+        <v>1144648</v>
       </c>
       <c r="C9" t="n">
-        <v>100674</v>
+        <v>235999</v>
       </c>
       <c r="D9" t="n">
-        <v>50347</v>
+        <v>113937</v>
       </c>
       <c r="E9" t="n">
-        <v>50327</v>
+        <v>122062</v>
       </c>
       <c r="F9" t="n">
-        <v>1056995</v>
+        <v>902280</v>
       </c>
       <c r="G9" t="n">
-        <v>519141</v>
+        <v>442266</v>
       </c>
       <c r="H9" t="n">
-        <v>537854</v>
+        <v>460014</v>
       </c>
       <c r="I9" t="n">
-        <v>7317</v>
+        <v>3958</v>
       </c>
       <c r="J9" t="n">
-        <v>3627</v>
+        <v>2021</v>
       </c>
       <c r="K9" t="n">
-        <v>3691</v>
+        <v>1937</v>
       </c>
       <c r="L9" t="n">
-        <v>573115</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+        <v>559349</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2410</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1124</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1286</v>
+      </c>
       <c r="P9" t="n">
-        <v>591871</v>
+        <v>585299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1145209</v>
+        <v>1091876</v>
       </c>
       <c r="C10" t="n">
-        <v>223697</v>
+        <v>240481</v>
       </c>
       <c r="D10" t="n">
-        <v>106365</v>
+        <v>115778</v>
       </c>
       <c r="E10" t="n">
-        <v>117332</v>
+        <v>124704</v>
       </c>
       <c r="F10" t="n">
-        <v>909392</v>
+        <v>845547</v>
       </c>
       <c r="G10" t="n">
-        <v>445830</v>
+        <v>415511</v>
       </c>
       <c r="H10" t="n">
-        <v>463562</v>
+        <v>430035</v>
       </c>
       <c r="I10" t="n">
-        <v>10164</v>
+        <v>3088</v>
       </c>
       <c r="J10" t="n">
-        <v>5084</v>
+        <v>1497</v>
       </c>
       <c r="K10" t="n">
-        <v>5080</v>
+        <v>1591</v>
       </c>
       <c r="L10" t="n">
-        <v>558170</v>
+        <v>534042</v>
       </c>
       <c r="M10" t="n">
-        <v>1956</v>
+        <v>2761</v>
       </c>
       <c r="N10" t="n">
-        <v>892</v>
+        <v>1256</v>
       </c>
       <c r="O10" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="P10" t="n">
-        <v>587039</v>
+        <v>557834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1124661</v>
+        <v>1494054</v>
       </c>
       <c r="C11" t="n">
-        <v>215952</v>
+        <v>445361</v>
       </c>
       <c r="D11" t="n">
-        <v>102315</v>
+        <v>216242</v>
       </c>
       <c r="E11" t="n">
-        <v>113637</v>
+        <v>229119</v>
       </c>
       <c r="F11" t="n">
-        <v>898059</v>
+        <v>1041754</v>
       </c>
       <c r="G11" t="n">
-        <v>440803</v>
+        <v>510873</v>
       </c>
       <c r="H11" t="n">
-        <v>457256</v>
+        <v>530881</v>
       </c>
       <c r="I11" t="n">
-        <v>8969</v>
+        <v>3562</v>
       </c>
       <c r="J11" t="n">
-        <v>4393</v>
+        <v>1612</v>
       </c>
       <c r="K11" t="n">
-        <v>4576</v>
+        <v>1949</v>
       </c>
       <c r="L11" t="n">
-        <v>548307</v>
+        <v>730212</v>
       </c>
       <c r="M11" t="n">
-        <v>1682</v>
+        <v>3377</v>
       </c>
       <c r="N11" t="n">
-        <v>796</v>
+        <v>1485</v>
       </c>
       <c r="O11" t="n">
-        <v>886</v>
+        <v>1892</v>
       </c>
       <c r="P11" t="n">
-        <v>576354</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1118433</v>
-      </c>
-      <c r="C12" t="n">
-        <v>211539</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102593</v>
-      </c>
-      <c r="E12" t="n">
-        <v>108946</v>
-      </c>
-      <c r="F12" t="n">
-        <v>897422</v>
-      </c>
-      <c r="G12" t="n">
-        <v>437710</v>
-      </c>
-      <c r="H12" t="n">
-        <v>459713</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7797</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3939</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3857</v>
-      </c>
-      <c r="L12" t="n">
-        <v>545005</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1675</v>
-      </c>
-      <c r="N12" t="n">
-        <v>763</v>
-      </c>
-      <c r="O12" t="n">
-        <v>911</v>
-      </c>
-      <c r="P12" t="n">
-        <v>573428</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1124402</v>
-      </c>
-      <c r="C13" t="n">
-        <v>213720</v>
-      </c>
-      <c r="D13" t="n">
-        <v>104113</v>
-      </c>
-      <c r="E13" t="n">
-        <v>109607</v>
-      </c>
-      <c r="F13" t="n">
-        <v>902244</v>
-      </c>
-      <c r="G13" t="n">
-        <v>440110</v>
-      </c>
-      <c r="H13" t="n">
-        <v>462133</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6712</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3386</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3327</v>
-      </c>
-      <c r="L13" t="n">
-        <v>548391</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1726</v>
-      </c>
-      <c r="N13" t="n">
-        <v>782</v>
-      </c>
-      <c r="O13" t="n">
-        <v>944</v>
-      </c>
-      <c r="P13" t="n">
-        <v>576011</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21312241</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4545865</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2147506</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2398359</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16649810</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8190330</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8459480</v>
-      </c>
-      <c r="I14" t="n">
-        <v>89209</v>
-      </c>
-      <c r="J14" t="n">
-        <v>44754</v>
-      </c>
-      <c r="K14" t="n">
-        <v>44455</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10395195</v>
-      </c>
-      <c r="M14" t="n">
-        <v>27357</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12606</v>
-      </c>
-      <c r="O14" t="n">
-        <v>14751</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10917046</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1158019</v>
-      </c>
-      <c r="C15" t="n">
-        <v>209164</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101524</v>
-      </c>
-      <c r="E15" t="n">
-        <v>107641</v>
-      </c>
-      <c r="F15" t="n">
-        <v>942716</v>
-      </c>
-      <c r="G15" t="n">
-        <v>460399</v>
-      </c>
-      <c r="H15" t="n">
-        <v>482318</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4781</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2373</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2408</v>
-      </c>
-      <c r="L15" t="n">
-        <v>564932</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1357</v>
-      </c>
-      <c r="N15" t="n">
-        <v>636</v>
-      </c>
-      <c r="O15" t="n">
-        <v>721</v>
-      </c>
-      <c r="P15" t="n">
-        <v>593087</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1145246</v>
-      </c>
-      <c r="C16" t="n">
-        <v>219571</v>
-      </c>
-      <c r="D16" t="n">
-        <v>107454</v>
-      </c>
-      <c r="E16" t="n">
-        <v>112117</v>
-      </c>
-      <c r="F16" t="n">
-        <v>916678</v>
-      </c>
-      <c r="G16" t="n">
-        <v>447334</v>
-      </c>
-      <c r="H16" t="n">
-        <v>469345</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7217</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3610</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3607</v>
-      </c>
-      <c r="L16" t="n">
-        <v>559174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1779</v>
-      </c>
-      <c r="N16" t="n">
-        <v>776</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1003</v>
-      </c>
-      <c r="P16" t="n">
-        <v>586072</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1144648</v>
-      </c>
-      <c r="C17" t="n">
-        <v>235999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>113937</v>
-      </c>
-      <c r="E17" t="n">
-        <v>122062</v>
-      </c>
-      <c r="F17" t="n">
-        <v>902280</v>
-      </c>
-      <c r="G17" t="n">
-        <v>442266</v>
-      </c>
-      <c r="H17" t="n">
-        <v>460014</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3958</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1937</v>
-      </c>
-      <c r="L17" t="n">
-        <v>559349</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2410</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1124</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1286</v>
-      </c>
-      <c r="P17" t="n">
-        <v>585299</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1091876</v>
-      </c>
-      <c r="C18" t="n">
-        <v>240481</v>
-      </c>
-      <c r="D18" t="n">
-        <v>115778</v>
-      </c>
-      <c r="E18" t="n">
-        <v>124704</v>
-      </c>
-      <c r="F18" t="n">
-        <v>845547</v>
-      </c>
-      <c r="G18" t="n">
-        <v>415511</v>
-      </c>
-      <c r="H18" t="n">
-        <v>430035</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3088</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1497</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1591</v>
-      </c>
-      <c r="L18" t="n">
-        <v>534042</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2761</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1505</v>
-      </c>
-      <c r="P18" t="n">
-        <v>557834</v>
+        <v>763842</v>
       </c>
     </row>
   </sheetData>
